--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Nmb-Nmbr.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Nmb-Nmbr.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>3.922219999999999</v>
+        <v>3.035631</v>
       </c>
       <c r="H2">
-        <v>11.76666</v>
+        <v>9.106892999999999</v>
       </c>
       <c r="I2">
-        <v>0.4417989558044475</v>
+        <v>0.3844053036145329</v>
       </c>
       <c r="J2">
-        <v>0.4417989558044475</v>
+        <v>0.384405303614533</v>
       </c>
       <c r="K2">
         <v>1</v>
@@ -558,10 +558,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.05595866666666666</v>
+        <v>0.019</v>
       </c>
       <c r="N2">
-        <v>0.167876</v>
+        <v>0.057</v>
       </c>
       <c r="O2">
         <v>1</v>
@@ -570,16 +570,16 @@
         <v>1</v>
       </c>
       <c r="Q2">
-        <v>0.2194822015733333</v>
+        <v>0.057676989</v>
       </c>
       <c r="R2">
-        <v>1.97533981416</v>
+        <v>0.5190929009999999</v>
       </c>
       <c r="S2">
-        <v>0.4417989558044475</v>
+        <v>0.3844053036145329</v>
       </c>
       <c r="T2">
-        <v>0.4417989558044475</v>
+        <v>0.384405303614533</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -608,10 +608,10 @@
         <v>9.551231999999999</v>
       </c>
       <c r="I3">
-        <v>0.358617001277</v>
+        <v>0.4031610162601934</v>
       </c>
       <c r="J3">
-        <v>0.358617001277</v>
+        <v>0.4031610162601935</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -620,10 +620,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>0.05595866666666666</v>
+        <v>0.019</v>
       </c>
       <c r="N3">
-        <v>0.167876</v>
+        <v>0.057</v>
       </c>
       <c r="O3">
         <v>1</v>
@@ -632,16 +632,16 @@
         <v>1</v>
       </c>
       <c r="Q3">
-        <v>0.178158069248</v>
+        <v>0.06049113599999999</v>
       </c>
       <c r="R3">
-        <v>1.603422623232</v>
+        <v>0.544420224</v>
       </c>
       <c r="S3">
-        <v>0.358617001277</v>
+        <v>0.4031610162601934</v>
       </c>
       <c r="T3">
-        <v>0.358617001277</v>
+        <v>0.4031610162601935</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>23</v>
       </c>
       <c r="E4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.5617903333333333</v>
+        <v>0.1452593333333333</v>
       </c>
       <c r="H4">
-        <v>1.685371</v>
+        <v>0.435778</v>
       </c>
       <c r="I4">
-        <v>0.06328007675441438</v>
+        <v>0.01839434968638963</v>
       </c>
       <c r="J4">
-        <v>0.06328007675441438</v>
+        <v>0.01839434968638963</v>
       </c>
       <c r="K4">
         <v>1</v>
@@ -682,10 +682,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.05595866666666666</v>
+        <v>0.019</v>
       </c>
       <c r="N4">
-        <v>0.167876</v>
+        <v>0.057</v>
       </c>
       <c r="O4">
         <v>1</v>
@@ -694,16 +694,16 @@
         <v>1</v>
       </c>
       <c r="Q4">
-        <v>0.03143703799955555</v>
+        <v>0.002759927333333333</v>
       </c>
       <c r="R4">
-        <v>0.282933341996</v>
+        <v>0.024839346</v>
       </c>
       <c r="S4">
-        <v>0.06328007675441438</v>
+        <v>0.01839434968638963</v>
       </c>
       <c r="T4">
-        <v>0.06328007675441438</v>
+        <v>0.01839434968638963</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5504896666666667</v>
+        <v>0.7016706666666667</v>
       </c>
       <c r="H5">
-        <v>1.651469</v>
+        <v>2.105012</v>
       </c>
       <c r="I5">
-        <v>0.06200716938735505</v>
+        <v>0.08885333087500151</v>
       </c>
       <c r="J5">
-        <v>0.06200716938735505</v>
+        <v>0.08885333087500152</v>
       </c>
       <c r="K5">
         <v>1</v>
@@ -744,10 +744,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.05595866666666666</v>
+        <v>0.019</v>
       </c>
       <c r="N5">
-        <v>0.167876</v>
+        <v>0.057</v>
       </c>
       <c r="O5">
         <v>1</v>
@@ -756,16 +756,16 @@
         <v>1</v>
       </c>
       <c r="Q5">
-        <v>0.03080466776044444</v>
+        <v>0.01333174266666667</v>
       </c>
       <c r="R5">
-        <v>0.277242009844</v>
+        <v>0.119985684</v>
       </c>
       <c r="S5">
-        <v>0.06200716938735505</v>
+        <v>0.08885333087500151</v>
       </c>
       <c r="T5">
-        <v>0.06200716938735505</v>
+        <v>0.08885333087500152</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>23</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>0.659595</v>
+        <v>0.8306490000000001</v>
       </c>
       <c r="H6">
-        <v>1.978785</v>
+        <v>2.491947</v>
       </c>
       <c r="I6">
-        <v>0.07429679677678321</v>
+        <v>0.1051859995638825</v>
       </c>
       <c r="J6">
-        <v>0.07429679677678319</v>
+        <v>0.1051859995638825</v>
       </c>
       <c r="K6">
         <v>1</v>
@@ -806,10 +806,10 @@
         <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>0.05595866666666666</v>
+        <v>0.019</v>
       </c>
       <c r="N6">
-        <v>0.167876</v>
+        <v>0.057</v>
       </c>
       <c r="O6">
         <v>1</v>
@@ -818,16 +818,16 @@
         <v>1</v>
       </c>
       <c r="Q6">
-        <v>0.03691005674</v>
+        <v>0.015782331</v>
       </c>
       <c r="R6">
-        <v>0.33219051066</v>
+        <v>0.142040979</v>
       </c>
       <c r="S6">
-        <v>0.07429679677678321</v>
+        <v>0.1051859995638825</v>
       </c>
       <c r="T6">
-        <v>0.07429679677678319</v>
+        <v>0.1051859995638825</v>
       </c>
     </row>
   </sheetData>
